--- a/用例数据/深A/证券转换/测试结果.xlsx
+++ b/用例数据/深A/证券转换/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F74F79C-AB2C-478C-B3F0-656561D19AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="318">
   <si>
     <t>EXCHID</t>
   </si>
@@ -964,12 +965,22 @@
   </si>
   <si>
     <t>EXTEND</t>
+  </si>
+  <si>
+    <t>111100.0000</t>
+  </si>
+  <si>
+    <t>10.89000000</t>
+  </si>
+  <si>
+    <t>184720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,6 +1113,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1137,6 +1165,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1312,11 +1357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3741,17 +3786,2348 @@
     </row>
     <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CG20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CG1"/>
+  <autoFilter ref="A1:CG1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3759,14 +6135,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -7188,11 +9567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
